--- a/medicine/Mort/Cimetière_militaire_américain_de_Neuville-en-Condroz/Cimetière_militaire_américain_de_Neuville-en-Condroz.xlsx
+++ b/medicine/Mort/Cimetière_militaire_américain_de_Neuville-en-Condroz/Cimetière_militaire_américain_de_Neuville-en-Condroz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_am%C3%A9ricain_de_Neuville-en-Condroz</t>
+          <t>Cimetière_militaire_américain_de_Neuville-en-Condroz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire américain de Neuville-en-Condroz, ou l'Ardennes American Cemetery, est l'un des quatorze cimetières permanents américains de la Seconde Guerre mondiale établis hors des États-Unis. Il est géré par l'American Battle Monuments Commission. Il se situe sur le territoire de la commune de Neupré, à une vingtaine de kilomètres au sud-ouest de Liège en Belgique, le long de la route nationale 63.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_am%C3%A9ricain_de_Neuville-en-Condroz</t>
+          <t>Cimetière_militaire_américain_de_Neuville-en-Condroz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière abrite sur 36,5 hectares les dépouilles et les sépultures de 5.328 soldats, dont nombre sont tombés lors de la bataille des Ardennes.
 La commune de Neupré fut libérée le 7 septembre 1944 par la 3e division blindée, et un cimetière provisoire fut établi sur le site le 8 février 1945. Lorsque le site fut retenu par les États-Unis pour devenir un cimetière permanent, la Belgique accorda le libre usage du terrain à perpétuité. 
